--- a/Training/BiLSTM_ETH_result2.xlsx
+++ b/Training/BiLSTM_ETH_result2.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>111.0321887538128</v>
+        <v>94.17442503541469</v>
       </c>
       <c r="F1" t="n">
-        <v>104.3710030675884</v>
+        <v>87.08969553656776</v>
       </c>
       <c r="G1" t="n">
-        <v>7.974480571651521</v>
+        <v>6.677454172834087</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>63.7416140564611</v>
+        <v>48.44293066265342</v>
       </c>
       <c r="F2" t="n">
-        <v>59.18885848990256</v>
+        <v>42.34634843021786</v>
       </c>
       <c r="G2" t="n">
-        <v>4.504259513559774</v>
+        <v>3.264735795402925</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>53.02800189638808</v>
+        <v>149.0119948075852</v>
       </c>
       <c r="F3" t="n">
-        <v>48.07057183738232</v>
+        <v>141.6389246609103</v>
       </c>
       <c r="G3" t="n">
-        <v>3.655489474236913</v>
+        <v>10.77350313869531</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>126.0037210277941</v>
+        <v>82.91378104695507</v>
       </c>
       <c r="F4" t="n">
-        <v>120.147850436779</v>
+        <v>77.04689117676723</v>
       </c>
       <c r="G4" t="n">
-        <v>9.149896226212592</v>
+        <v>5.905719365952574</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>48.82597412249797</v>
+        <v>44.02977290303556</v>
       </c>
       <c r="F5" t="n">
-        <v>44.59903161914263</v>
+        <v>39.10055765593264</v>
       </c>
       <c r="G5" t="n">
-        <v>3.427098397479992</v>
+        <v>3.034695479304117</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>120.7870313721529</v>
+        <v>132.4304716610398</v>
       </c>
       <c r="F6" t="n">
-        <v>115.2529928028934</v>
+        <v>126.4878897399315</v>
       </c>
       <c r="G6" t="n">
-        <v>8.769986019254619</v>
+        <v>9.614687409726114</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>97.39831923466863</v>
+        <v>94.5588406013091</v>
       </c>
       <c r="F7" t="n">
-        <v>93.48264886433557</v>
+        <v>89.42375431330656</v>
       </c>
       <c r="G7" t="n">
-        <v>7.0697195126856</v>
+        <v>6.81951321156616</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>99.55300916348041</v>
+        <v>75.12561755973948</v>
       </c>
       <c r="F8" t="n">
-        <v>95.7048620054334</v>
+        <v>67.34368687914538</v>
       </c>
       <c r="G8" t="n">
-        <v>7.230091251066321</v>
+        <v>5.262664463891136</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>52.87929375913382</v>
+        <v>110.248662100765</v>
       </c>
       <c r="F9" t="n">
-        <v>49.13494931021494</v>
+        <v>105.6739213222992</v>
       </c>
       <c r="G9" t="n">
-        <v>3.74717249883856</v>
+        <v>8.002636247866894</v>
       </c>
     </row>
   </sheetData>
